--- a/test_data/ParentalConsent_Doubles.xlsx
+++ b/test_data/ParentalConsent_Doubles.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs-my.sharepoint.com/personal/chinmay_mudholkar1_nhs_net/Documents/VSCode/manage-vaccinations-in-schools-testing/test_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_29F4BEC59605FFA1F8E8A78AEB924F4CBE121BFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F5A1D88-55B2-4DF9-A961-4C8D00DC84FA}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>ScenarioID</t>
   </si>
@@ -73,12 +79,6 @@
     <t>PostCode</t>
   </si>
   <si>
-    <t>AllergyDetails</t>
-  </si>
-  <si>
-    <t>MedicalConditionDetails</t>
-  </si>
-  <si>
     <t>ReactionDetails</t>
   </si>
   <si>
@@ -97,12 +97,6 @@
     <t>001_DeclineConsent</t>
   </si>
   <si>
-    <t>LIEN</t>
-  </si>
-  <si>
-    <t>MAH</t>
-  </si>
-  <si>
     <t>AKAFirst</t>
   </si>
   <si>
@@ -121,197 +115,138 @@
     <t>aldkfj@example.com</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>Vaccine already received</t>
   </si>
   <si>
     <t>Vaccine already received in previous school</t>
   </si>
   <si>
+    <t>Ravensdale Junior School</t>
+  </si>
+  <si>
+    <t>My GP</t>
+  </si>
+  <si>
+    <t>DERBY</t>
+  </si>
+  <si>
+    <t>NOTTS</t>
+  </si>
+  <si>
+    <t>MyReaction</t>
+  </si>
+  <si>
+    <t>MyExtraSupport</t>
+  </si>
+  <si>
+    <t>RETFORD</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>MenACWY</t>
+  </si>
+  <si>
+    <t>Td/IPV</t>
+  </si>
+  <si>
+    <t>003_MENACWY</t>
+  </si>
+  <si>
+    <t>004_TDIPV</t>
+  </si>
+  <si>
+    <t>BleedingDisorderDetails</t>
+  </si>
+  <si>
+    <t>Bleeding disorder</t>
+  </si>
+  <si>
+    <t>SevereAllergyDetails</t>
+  </si>
+  <si>
+    <t>Severe allergies</t>
+  </si>
+  <si>
+    <t>VaccinatedInPastDetails</t>
+  </si>
+  <si>
+    <t>OtherVaccsInPastDetails</t>
+  </si>
+  <si>
+    <t>ROSS</t>
+  </si>
+  <si>
+    <t>HAYES</t>
+  </si>
+  <si>
+    <t>EMILIA</t>
+  </si>
+  <si>
+    <t>MADDOX</t>
+  </si>
+  <si>
+    <t>1 JEDBURGH CLOSE</t>
+  </si>
+  <si>
+    <t>SINFIN</t>
+  </si>
+  <si>
+    <t>DE24 3DU</t>
+  </si>
+  <si>
+    <t>ROSE</t>
+  </si>
+  <si>
+    <t>VOSE</t>
+  </si>
+  <si>
+    <t>1 ROWSLEY AVENUE</t>
+  </si>
+  <si>
+    <t>DE23 6JZ</t>
+  </si>
+  <si>
+    <t>SUSAN</t>
+  </si>
+  <si>
+    <t>BYRON</t>
+  </si>
+  <si>
+    <t>1 WEST GROVE ROAD</t>
+  </si>
+  <si>
+    <t>DN22 6HR</t>
+  </si>
+  <si>
+    <t>002_ChangeSchool_Both</t>
+  </si>
+  <si>
     <t>Consent refused
-You’ve told us that you do not want LIEN MAH to get the HPV vaccination at school</t>
-  </si>
-  <si>
-    <t>002_ChangeSchool</t>
-  </si>
-  <si>
-    <t>MIKALA</t>
-  </si>
-  <si>
-    <t>BANTON</t>
-  </si>
-  <si>
-    <t>Ravensdale Junior School</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>My GP</t>
-  </si>
-  <si>
-    <t>28 DEADMANS LANE</t>
-  </si>
-  <si>
-    <t>DERBY</t>
-  </si>
-  <si>
-    <t>DE24 8WE</t>
+You’ve told us that you do not want ROSS HAYES to get the MenACWY and Td/IPV vaccinations at school</t>
   </si>
   <si>
     <t>Consent confirmed
-MIKALA BANTON is due to get the HPV vaccination at school</t>
-  </si>
-  <si>
-    <t>003_ExpectedSchool</t>
-  </si>
-  <si>
-    <t>ABBY</t>
-  </si>
-  <si>
-    <t>RESTON</t>
-  </si>
-  <si>
-    <t>3 CUCKOO HOLT</t>
-  </si>
-  <si>
-    <t>GATEFORD</t>
-  </si>
-  <si>
-    <t>NOTTS</t>
-  </si>
-  <si>
-    <t>S81 8TN</t>
-  </si>
-  <si>
-    <t>MyAllergy</t>
-  </si>
-  <si>
-    <t>MyMedicalCondition</t>
-  </si>
-  <si>
-    <t>MyReaction</t>
-  </si>
-  <si>
-    <t>MyExtraSupport</t>
+EMILIA MADDOX is due to get the MenACWY and Td/IPV vaccinations at school</t>
   </si>
   <si>
     <t>Consent confirmed
-As you answered ‘yes’ to some of the health questions, we need to check the HPV vaccination is suitable for ABBY RESTON. We’ll review your answers and get in touch again soon.</t>
-  </si>
-  <si>
-    <t>004_MAVIS-1778</t>
-  </si>
-  <si>
-    <t>ULI</t>
-  </si>
-  <si>
-    <t>JACKSON</t>
-  </si>
-  <si>
-    <t>FLAT</t>
-  </si>
-  <si>
-    <t>12 STATION ROAD</t>
-  </si>
-  <si>
-    <t>WHITLEY BAY</t>
-  </si>
-  <si>
-    <t>NE26 2RA</t>
+As you answered ‘yes’ to some of the health questions, we need to check the MenACWY vaccination is suitable for ROSE VOSE. We’ll review your answers and get in touch again soon.</t>
   </si>
   <si>
     <t>Consent confirmed
-ULI JACKSON is due to get the HPV vaccination at school on</t>
-  </si>
-  <si>
-    <t>005_MAVIS-1812</t>
-  </si>
-  <si>
-    <t>BERYL</t>
-  </si>
-  <si>
-    <t>TWIST</t>
-  </si>
-  <si>
-    <t>1 RODSLEY CRESCENT</t>
-  </si>
-  <si>
-    <t>LITTLEOVER</t>
-  </si>
-  <si>
-    <t>DE23 2NY</t>
-  </si>
-  <si>
-    <t>Consent confirmed
-BERYL TWIST is due to get the HPV vaccination at school on</t>
-  </si>
-  <si>
-    <t>006_MAVIS-1896</t>
-  </si>
-  <si>
-    <t>HELENA</t>
-  </si>
-  <si>
-    <t>HOYTE</t>
-  </si>
-  <si>
-    <t>1 WEST PARK PLACE</t>
-  </si>
-  <si>
-    <t>RETFORD</t>
-  </si>
-  <si>
-    <t>DN22 7PP</t>
-  </si>
-  <si>
-    <t>Consent confirmed
-HELENA HOYTE is due to get the HPV vaccination at school on</t>
-  </si>
-  <si>
-    <t>007_MAVIS-1781</t>
-  </si>
-  <si>
-    <t>NoNHS</t>
-  </si>
-  <si>
-    <t>NoNumber</t>
-  </si>
-  <si>
-    <t>10 WEST PARK PLACE</t>
-  </si>
-  <si>
-    <t>DN22 7PQ</t>
-  </si>
-  <si>
-    <t>Consent confirmed
-NoNHS NoNumber is due to get the HPV vaccination at school on</t>
-  </si>
-  <si>
-    <t>008_MAVIS-1782</t>
-  </si>
-  <si>
-    <t>NonMatching</t>
-  </si>
-  <si>
-    <t>ConsentRecord</t>
-  </si>
-  <si>
-    <t>11 WEST PARK PLACE</t>
-  </si>
-  <si>
-    <t>Consent confirmed
-NonMatching ConsentRecord is due to get the HPV vaccination at school on</t>
+SUSAN BYRON is due to get the Td/IPV vaccination at school on</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,7 +257,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFffffff"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -345,6 +280,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -355,7 +296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2f5597"/>
+        <fgColor rgb="FF2F5597"/>
       </patternFill>
     </fill>
   </fills>
@@ -387,7 +328,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -399,7 +340,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -449,65 +390,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -518,10 +466,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -559,71 +507,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,7 +599,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -674,11 +622,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -687,13 +635,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -703,7 +651,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -712,7 +660,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -721,7 +669,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -729,10 +677,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -797,45 +745,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="14" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="14" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="14" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="14" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="14" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="14" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="14" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="14" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="14" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="14" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="14" width="69.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="21.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.5703125" style="15" customWidth="1"/>
+    <col min="26" max="26" width="24" style="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="69.42578125" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,67 +843,73 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:28" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="46.5">
-      <c r="A2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="8">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8">
+        <v>8</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2009</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="L2" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="8">
-        <v>3</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8">
-        <v>2011</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -965,457 +920,337 @@
       <c r="U2" s="8"/>
       <c r="V2" s="10"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33">
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="12"/>
       <c r="F3" s="8">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G3" s="8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H3" s="8">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="R3" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="10"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="60">
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="12"/>
       <c r="F4" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G4" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H4" s="8">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>53</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="5"/>
       <c r="R4" s="5" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33">
+        <v>38</v>
+      </c>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="12"/>
       <c r="F5" s="8">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G5" s="8">
         <v>8</v>
       </c>
       <c r="H5" s="8">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="5" t="s">
         <v>43</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="Q5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="10"/>
       <c r="W5" s="5"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33">
-      <c r="A6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="11" t="s">
         <v>71</v>
       </c>
+    </row>
+    <row r="6" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="5"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>2</v>
-      </c>
-      <c r="H6" s="8">
-        <v>2011</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="10"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33">
-      <c r="A7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+    </row>
+    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="5"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="8">
-        <v>20</v>
-      </c>
-      <c r="G7" s="8">
-        <v>8</v>
-      </c>
-      <c r="H7" s="8">
-        <v>2011</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="10"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33">
-      <c r="A8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+    </row>
+    <row r="8" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="5"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
-        <v>10</v>
-      </c>
-      <c r="H8" s="8">
-        <v>2011</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
       <c r="V8" s="10"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33">
-      <c r="A9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+    </row>
+    <row r="9" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="5"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>11</v>
-      </c>
-      <c r="H9" s="8">
-        <v>2011</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="10"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+    </row>
+    <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="10"/>
@@ -1439,11 +1274,13 @@
       <c r="U10" s="8"/>
       <c r="V10" s="10"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+    </row>
+    <row r="11" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="10"/>
@@ -1467,11 +1304,13 @@
       <c r="U11" s="8"/>
       <c r="V11" s="10"/>
       <c r="W11" s="5"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+    </row>
+    <row r="12" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="10"/>
@@ -1495,11 +1334,13 @@
       <c r="U12" s="8"/>
       <c r="V12" s="10"/>
       <c r="W12" s="5"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+    </row>
+    <row r="13" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="10"/>
@@ -1523,11 +1364,13 @@
       <c r="U13" s="8"/>
       <c r="V13" s="10"/>
       <c r="W13" s="5"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+    </row>
+    <row r="14" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
@@ -1551,11 +1394,13 @@
       <c r="U14" s="8"/>
       <c r="V14" s="10"/>
       <c r="W14" s="5"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+    </row>
+    <row r="15" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
@@ -1579,11 +1424,13 @@
       <c r="U15" s="8"/>
       <c r="V15" s="10"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+    </row>
+    <row r="16" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
@@ -1607,11 +1454,13 @@
       <c r="U16" s="8"/>
       <c r="V16" s="10"/>
       <c r="W16" s="5"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+    </row>
+    <row r="17" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
@@ -1635,11 +1484,13 @@
       <c r="U17" s="8"/>
       <c r="V17" s="10"/>
       <c r="W17" s="5"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+    </row>
+    <row r="18" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="10"/>
@@ -1663,11 +1514,13 @@
       <c r="U18" s="8"/>
       <c r="V18" s="10"/>
       <c r="W18" s="5"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+    </row>
+    <row r="19" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>
@@ -1691,123 +1544,14 @@
       <c r="U19" s="8"/>
       <c r="V19" s="10"/>
       <c r="W19" s="5"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_data/ParentalConsent_Doubles.xlsx
+++ b/test_data/ParentalConsent_Doubles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs-my.sharepoint.com/personal/chinmay_mudholkar1_nhs_net/Documents/VSCode/manage-vaccinations-in-schools-testing/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_29F4BEC59605FFA1F8E8A78AEB924F4CBE121BFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F5A1D88-55B2-4DF9-A961-4C8D00DC84FA}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_29F4BEC59605FFA1F8E8A78AEB924F4CBE121BFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86607970-589B-46E2-AA84-7E5214007DF9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t>ScenarioID</t>
   </si>
@@ -234,11 +234,14 @@
 EMILIA MADDOX is due to get the MenACWY and Td/IPV vaccinations at school</t>
   </si>
   <si>
-    <t>Consent confirmed
+    <t>Personal choice</t>
+  </si>
+  <si>
+    <t>Consent for the MenACWY vaccination confirmed
 As you answered ‘yes’ to some of the health questions, we need to check the MenACWY vaccination is suitable for ROSE VOSE. We’ll review your answers and get in touch again soon.</t>
   </si>
   <si>
-    <t>Consent confirmed
+    <t>Consent for the Td/IPV vaccination confirmed
 SUSAN BYRON is due to get the Td/IPV vaccination at school on</t>
   </si>
 </sst>
@@ -751,8 +754,8 @@
   </sheetPr>
   <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,10 +1063,14 @@
       </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="8"/>
+      <c r="Z4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="AB4" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1124,10 +1131,14 @@
       <c r="W5" s="5"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="8"/>
+      <c r="Z5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="AB5" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
